--- a/tests/data/output/一级测试用例-06001_result.xlsx
+++ b/tests/data/output/一级测试用例-06001_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,57 +369,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>用例编号</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>测试模块</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>用例标题</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>table_main</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>table_main_subA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>table_main_subB</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>预期测试结果</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>测试用例key</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>实际测试结果</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>是否通过</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>keyValue</t>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>key_value_main</t>
         </is>
       </c>
     </row>
@@ -428,40 +433,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>14</v>
       </c>
-      <c r="C2" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>ps_run</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type="AT_LARGE"</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>ps_run=1</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{"user_name":"秋利","id_card_no":"460201195507142995"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>{"user_name":"古桂花","id_card_no":"500112193510049772"}</t>
         </is>
       </c>
     </row>
@@ -470,40 +484,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>15</v>
       </c>
-      <c r="C3" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>ps_run</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type=""</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
         <is>
           <t>ps_run=0</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{"user_name":"子杰","id_card_no":"410101195605297742"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>{"user_name":"归华","id_card_no":"530927194004173533"}</t>
         </is>
       </c>
     </row>
@@ -512,40 +535,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
         <v>16</v>
       </c>
-      <c r="C4" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>ps_drug</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type="DRUG"</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
         <is>
           <t>ps_drug=1</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{"user_name":"马燕","id_card_no":"530428198605146722"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>{"user_name":"左丹丹","id_card_no":"31010019370731150X"}</t>
         </is>
       </c>
     </row>
@@ -554,40 +586,49 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
         <v>17</v>
       </c>
-      <c r="C5" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>ps_involve_drug</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type="DRUG_RELATED"</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>ps_involve_drug=1</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{"user_name":"令慧","id_card_no":"330921200006045386"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>{"user_name":"秦强","id_card_no":"141125196812125311"}</t>
         </is>
       </c>
     </row>
@@ -596,40 +637,49 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
         <v>18</v>
       </c>
-      <c r="C6" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>ps_involve_drug</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type="ILLEGAL_F"</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
         <is>
           <t>ps_involve_drug=1</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{"user_name":"家秀兰","id_card_no":"211404195109086910"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>{"user_name":"宗瑜","id_card_no":"610522197004152257"}</t>
         </is>
       </c>
     </row>
@@ -638,40 +688,49 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
         <v>19</v>
       </c>
-      <c r="C7" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>ps_seri_crim</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_criminal_case.id;
-info_criminal_case.crime_type="ILLEGAL_B,ILLEGAL_C" </t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>info_criminal_case.id;
+info_criminal_case.crime_type="ILLEGAL_B,ILLEGAL_C"</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
         <is>
           <t>ps_seri_crim=1</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{"user_name":"龙秀云","id_card_no":"371621194203267352"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>{"user_name":"任琴","id_card_no":"140603193304203955"}</t>
         </is>
       </c>
     </row>
@@ -680,40 +739,49 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
         <v>20</v>
       </c>
-      <c r="C8" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>ps_mali_crim</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type="ILLEGAL_C"</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
         <is>
           <t>ps_mali_crim=1</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{"user_name":"焦莉","id_card_no":"51068119540306904X"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>{"user_name":"归建国","id_card_no":"500151196305299527"}</t>
         </is>
       </c>
     </row>
@@ -722,40 +790,49 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
         <v>21</v>
       </c>
-      <c r="C9" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>ps_econ_crim</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type="ILLEGAL_E"</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
         <is>
           <t>ps_econ_crim=1</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{"user_name":"况雷","id_card_no":"360622193110278537"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>{"user_name":"缑慧","id_card_no":"45080419291205555X"}</t>
         </is>
       </c>
     </row>
@@ -764,40 +841,49 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
         <v>22</v>
       </c>
-      <c r="C10" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>ps_amend_staff</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type="REVOKE"</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
         <is>
           <t>ps_amend_staff=1</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{"user_name":"弓燕","id_card_no":"610304197312294392"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>{"user_name":"戚瑞","id_card_no":"532822194505264104"}</t>
         </is>
       </c>
     </row>
@@ -806,40 +892,49 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
         <v>23</v>
       </c>
-      <c r="C11" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>ps_illeg_crim</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type="ILLEGAL_A"</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
         <is>
           <t>ps_illeg_crim=1</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>{"user_name":"阎鹏","id_card_no":"230124199804243535"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>{"user_name":"相强","id_card_no":"540230194412067483"}</t>
         </is>
       </c>
     </row>
@@ -848,41 +943,50 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
         <v>24</v>
       </c>
-      <c r="C12" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>ps_illegal_record_time</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type="ILLEGAL_A";
 info_criminal_case.case_period=""</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
         <is>
           <t>ps_illegal_record_time=0</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{"user_name":"阎玲","id_card_no":"141021193512030180"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>{"user_name":"翟琴","id_card_no":"210803194112101157"}</t>
         </is>
       </c>
     </row>
@@ -891,41 +995,50 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
         <v>25</v>
       </c>
-      <c r="C13" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>ps_illegal_record_time</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type="ILLEGAL_A"; 
 info_criminal_case.case_period="[0,3)"</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
         <is>
           <t>ps_illegal_record_time=1</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{"user_name":"西勇","id_card_no":"130105197209177623"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>{"user_name":"翟帅","id_card_no":"140822194901225671"}</t>
         </is>
       </c>
     </row>
@@ -934,41 +1047,50 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
         <v>26</v>
       </c>
-      <c r="C14" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>ps_illegal_record_time</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type="ILLEGAL_A";
 info_criminal_case.case_period="[3,6)"</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
         <is>
           <t>ps_illegal_record_time=1</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{"user_name":"益柳","id_card_no":"320324195901051687"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>{"user_name":"衡燕","id_card_no":"410922198109128017"}</t>
         </is>
       </c>
     </row>
@@ -977,41 +1099,50 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
         <v>27</v>
       </c>
-      <c r="C15" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>ps_illegal_record_time</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type="ILLEGAL_A";
 info_criminal_case.case_period="[6,12)"</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
         <is>
           <t>ps_illegal_record_time=1</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{"user_name":"牧鑫","id_card_no":"350623195705191338"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>{"user_name":"司金凤","id_card_no":"520525195506113635"}</t>
         </is>
       </c>
     </row>
@@ -1020,41 +1151,50 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
         <v>28</v>
       </c>
-      <c r="C16" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>ps_illegal_record_time</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type="ILLEGAL_A";
 info_criminal_case.case_period="[12,24)"</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
         <is>
           <t>ps_illegal_record_time=2</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{"user_name":"杜晶","id_card_no":"341024198607280106"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>{"user_name":"慕洁","id_card_no":"370613200010247440"}</t>
         </is>
       </c>
     </row>
@@ -1063,41 +1203,50 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
         <v>29</v>
       </c>
-      <c r="C17" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>ps_illegal_record_time</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type="ILLEGAL_A";
 info_criminal_case.case_period="[24,60)"</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
         <is>
           <t>ps_illegal_record_time=3</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>{"user_name":"雷玉兰","id_card_no":"440233200001239782"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>{"user_name":"轩桂英","id_card_no":"420923196102102737"}</t>
         </is>
       </c>
     </row>
@@ -1106,41 +1255,50 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
         <v>30</v>
       </c>
-      <c r="C18" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>ps_illegal_record_time</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type="ILLEGAL_A";
 info_criminal_case.case_period="[0,0)"</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
         <is>
           <t>ps_illegal_record_time=4</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>4</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>{"user_name":"令想","id_card_no":"360426196603069037"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>{"user_name":"公玲","id_card_no":"451381198308021023"}</t>
         </is>
       </c>
     </row>
@@ -1149,40 +1307,49 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
         <v>31</v>
       </c>
-      <c r="C19" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>ps_drug</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type=""</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
         <is>
           <t>ps_drug=0</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{"user_name":"袁浩","id_card_no":"411104199206301837"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>{"user_name":"阳洁","id_card_no":"65292319670915559X"}</t>
         </is>
       </c>
     </row>
@@ -1191,40 +1358,49 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
         <v>32</v>
       </c>
-      <c r="C20" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>ps_involve_drug</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type=""</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
         <is>
           <t>ps_involve_drug=0</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{"user_name":"华红","id_card_no":"652222199305092122"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>{"user_name":"丘玉兰","id_card_no":"230703197007168597"}</t>
         </is>
       </c>
     </row>
@@ -1233,40 +1409,49 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
         <v>33</v>
       </c>
-      <c r="C21" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>ps_seri_crim</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type=""</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
         <is>
           <t>ps_seri_crim=0</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>{"user_name":"隆玉华","id_card_no":"210500195011123217"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>{"user_name":"孟霞","id_card_no":"511901199801076433"}</t>
         </is>
       </c>
     </row>
@@ -1275,40 +1460,49 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
         <v>34</v>
       </c>
-      <c r="C22" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>ps_mali_crim</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type=""</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
         <is>
           <t>ps_mali_crim=0</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>{"user_name":"鄂颖","id_card_no":"530401196605072576"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>{"user_name":"舒秀英","id_card_no":"410782197401169220"}</t>
         </is>
       </c>
     </row>
@@ -1317,40 +1511,49 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
         <v>35</v>
       </c>
-      <c r="C23" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>ps_econ_crim</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type=""</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
         <is>
           <t>ps_econ_crim=0</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{"user_name":"杭柳","id_card_no":"640101196108030219"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>{"user_name":"阳凯","id_card_no":"520402196406286410"}</t>
         </is>
       </c>
     </row>
@@ -1359,40 +1562,49 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
         <v>36</v>
       </c>
-      <c r="C24" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>ps_amend_staff</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type=""</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
         <is>
           <t>ps_amend_staff=0</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>{"user_name":"查利","id_card_no":"510681197606214656"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>{"user_name":"邢佳","id_card_no":"330203199406261954"}</t>
         </is>
       </c>
     </row>
@@ -1401,40 +1613,49 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
         <v>37</v>
       </c>
-      <c r="C25" t="n">
-        <v>6001</v>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="n">
+        <v>6001</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>ps_illeg_crim</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>info_criminal_case.id;
 info_criminal_case.crime_type=""</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
         <is>
           <t>ps_illeg_crim=0</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>{"user_name":"公东","id_card_no":"230701194305050363"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>{"user_name":"连华","id_card_no":"430922199903072450"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-06001_result.xlsx
+++ b/tests/data/output/一级测试用例-06001_result.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"古桂花","id_card_no":"500112193510049772"}</t>
+          <t>{"user_name":"牧超","id_card_no":"210781199007040811"}</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"归华","id_card_no":"530927194004173533"}</t>
+          <t>{"user_name":"程平","id_card_no":"330411199909270685"}</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"左丹丹","id_card_no":"31010019370731150X"}</t>
+          <t>{"user_name":"卫玲","id_card_no":"540102199805141711"}</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"秦强","id_card_no":"141125196812125311"}</t>
+          <t>{"user_name":"訾磊","id_card_no":"451028198605221744"}</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"宗瑜","id_card_no":"610522197004152257"}</t>
+          <t>{"user_name":"夏玉华","id_card_no":"140801195107313853"}</t>
         </is>
       </c>
     </row>
@@ -703,8 +703,8 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>info_criminal_case.id;
-info_criminal_case.crime_type="ILLEGAL_B,ILLEGAL_C"</t>
+          <t xml:space="preserve">info_criminal_case.id;
+info_criminal_case.crime_type="ILLEGAL_B,ILLEGAL_C" </t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -730,7 +730,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"任琴","id_card_no":"140603193304203955"}</t>
+          <t>{"user_name":"卢波","id_card_no":"350926196906268784"}</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"归建国","id_card_no":"500151196305299527"}</t>
+          <t>{"user_name":"郁淑华","id_card_no":"441224193410133446"}</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"缑慧","id_card_no":"45080419291205555X"}</t>
+          <t>{"user_name":"司博","id_card_no":"350203199410130977"}</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"戚瑞","id_card_no":"532822194505264104"}</t>
+          <t>{"user_name":"施峰","id_card_no":"340802194903279739"}</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"相强","id_card_no":"540230194412067483"}</t>
+          <t>{"user_name":"巫丹丹","id_card_no":"640221194505014206"}</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"翟琴","id_card_no":"210803194112101157"}</t>
+          <t>{"user_name":"茅亮","id_card_no":"53062219710907422X"}</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"翟帅","id_card_no":"140822194901225671"}</t>
+          <t>{"user_name":"燕杨","id_card_no":"654223196806143703"}</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"衡燕","id_card_no":"410922198109128017"}</t>
+          <t>{"user_name":"武秀英","id_card_no":"620700196005312478"}</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"司金凤","id_card_no":"520525195506113635"}</t>
+          <t>{"user_name":"李雪","id_card_no":"500235199507088874"}</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"慕洁","id_card_no":"370613200010247440"}</t>
+          <t>{"user_name":"邬玉","id_card_no":"131024194312148987"}</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"轩桂英","id_card_no":"420923196102102737"}</t>
+          <t>{"user_name":"计雷","id_card_no":"330900197712225409"}</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"公玲","id_card_no":"451381198308021023"}</t>
+          <t>{"user_name":"夔博","id_card_no":"360500198912278925"}</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"阳洁","id_card_no":"65292319670915559X"}</t>
+          <t>{"user_name":"郗淑珍","id_card_no":"500238196906155013"}</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"丘玉兰","id_card_no":"230703197007168597"}</t>
+          <t>{"user_name":"郦荣","id_card_no":"630103199807036737"}</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"孟霞","id_card_no":"511901199801076433"}</t>
+          <t>{"user_name":"郁志强","id_card_no":"370682194802272585"}</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"舒秀英","id_card_no":"410782197401169220"}</t>
+          <t>{"user_name":"双帆","id_card_no":"13010519520806293X"}</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"阳凯","id_card_no":"520402196406286410"}</t>
+          <t>{"user_name":"章想","id_card_no":"65402419590616633X"}</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"user_name":"邢佳","id_card_no":"330203199406261954"}</t>
+          <t>{"user_name":"从欣","id_card_no":"430203194308300324"}</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"user_name":"连华","id_card_no":"430922199903072450"}</t>
+          <t>{"user_name":"督洁","id_card_no":"321322193503209302"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-06001_result.xlsx
+++ b/tests/data/output/一级测试用例-06001_result.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"牧超","id_card_no":"210781199007040811"}</t>
+          <t>{"user_name":"倪凤兰","id_card_no":"532503196107168030"}</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"程平","id_card_no":"330411199909270685"}</t>
+          <t>{"user_name":"鲜莉","id_card_no":"530402193604274048"}</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"卫玲","id_card_no":"540102199805141711"}</t>
+          <t>{"user_name":"文莉","id_card_no":"421222195206227763"}</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"訾磊","id_card_no":"451028198605221744"}</t>
+          <t>{"user_name":"关娟","id_card_no":"210303196509216878"}</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"夏玉华","id_card_no":"140801195107313853"}</t>
+          <t>{"user_name":"西玉英","id_card_no":"650202197401188195"}</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"卢波","id_card_no":"350926196906268784"}</t>
+          <t>{"user_name":"屠婷婷","id_card_no":"371422195112249132"}</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"郁淑华","id_card_no":"441224193410133446"}</t>
+          <t>{"user_name":"万婷","id_card_no":"640000193303301939"}</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"司博","id_card_no":"350203199410130977"}</t>
+          <t>{"user_name":"金玉珍","id_card_no":"510322199902219139"}</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"施峰","id_card_no":"340802194903279739"}</t>
+          <t>{"user_name":"诸柳","id_card_no":"420921194510272020"}</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"巫丹丹","id_card_no":"640221194505014206"}</t>
+          <t>{"user_name":"佟阳","id_card_no":"542600198001284241"}</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"茅亮","id_card_no":"53062219710907422X"}</t>
+          <t>{"user_name":"卫欣","id_card_no":"141181194411179994"}</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"燕杨","id_card_no":"654223196806143703"}</t>
+          <t>{"user_name":"连杰","id_card_no":"410181198907069409"}</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"武秀英","id_card_no":"620700196005312478"}</t>
+          <t>{"user_name":"董娜","id_card_no":"520401199512317775"}</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"李雪","id_card_no":"500235199507088874"}</t>
+          <t>{"user_name":"暨华","id_card_no":"51152119581110857X"}</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"邬玉","id_card_no":"131024194312148987"}</t>
+          <t>{"user_name":"苗瑞","id_card_no":"445381195904045396"}</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"计雷","id_card_no":"330900197712225409"}</t>
+          <t>{"user_name":"后勇","id_card_no":"230826193003043625"}</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"夔博","id_card_no":"360500198912278925"}</t>
+          <t>{"user_name":"明想","id_card_no":"451202193408020454"}</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"郗淑珍","id_card_no":"500238196906155013"}</t>
+          <t>{"user_name":"郏坤","id_card_no":"140624197401107324"}</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"郦荣","id_card_no":"630103199807036737"}</t>
+          <t>{"user_name":"羊帆","id_card_no":"469029195806223000"}</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"郁志强","id_card_no":"370682194802272585"}</t>
+          <t>{"user_name":"仰畅","id_card_no":"140425197011092791"}</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"双帆","id_card_no":"13010519520806293X"}</t>
+          <t>{"user_name":"陈燕","id_card_no":"522634196607184385"}</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"章想","id_card_no":"65402419590616633X"}</t>
+          <t>{"user_name":"卓彬","id_card_no":"50010219830326578X"}</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"user_name":"从欣","id_card_no":"430203194308300324"}</t>
+          <t>{"user_name":"阎冬梅","id_card_no":"371602196203020667"}</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"user_name":"督洁","id_card_no":"321322193503209302"}</t>
+          <t>{"user_name":"卞春梅","id_card_no":"140106199912046921"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-06001_result.xlsx
+++ b/tests/data/output/一级测试用例-06001_result.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"倪凤兰","id_card_no":"532503196107168030"}</t>
+          <t>{"user_name":"卫雪","id_card_no":"140829193804117222"}</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"鲜莉","id_card_no":"530402193604274048"}</t>
+          <t>{"user_name":"邬晨","id_card_no":"45032719930708786X"}</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"文莉","id_card_no":"421222195206227763"}</t>
+          <t>{"user_name":"空倩","id_card_no":"140922194406297120"}</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"关娟","id_card_no":"210303196509216878"}</t>
+          <t>{"user_name":"酆华","id_card_no":"411402196710017632"}</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"西玉英","id_card_no":"650202197401188195"}</t>
+          <t>{"user_name":"权林","id_card_no":"451031196701198694"}</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"屠婷婷","id_card_no":"371422195112249132"}</t>
+          <t>{"user_name":"跋婷婷","id_card_no":"420682195304012747"}</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"万婷","id_card_no":"640000193303301939"}</t>
+          <t>{"user_name":"仰莉","id_card_no":"23090219960109589X"}</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"金玉珍","id_card_no":"510322199902219139"}</t>
+          <t>{"user_name":"苗淑英","id_card_no":"341200194212264656"}</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"诸柳","id_card_no":"420921194510272020"}</t>
+          <t>{"user_name":"通瑜","id_card_no":"230109199103124388"}</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"佟阳","id_card_no":"542600198001284241"}</t>
+          <t>{"user_name":"养阳","id_card_no":"50023319460714716X"}</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"卫欣","id_card_no":"141181194411179994"}</t>
+          <t>{"user_name":"蔚帅","id_card_no":"350629196402172650"}</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"连杰","id_card_no":"410181198907069409"}</t>
+          <t>{"user_name":"康雷","id_card_no":"61040319790605861X"}</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"董娜","id_card_no":"520401199512317775"}</t>
+          <t>{"user_name":"盖玉梅","id_card_no":"511524193608095232"}</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"暨华","id_card_no":"51152119581110857X"}</t>
+          <t>{"user_name":"金畅","id_card_no":"632623197902042743"}</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"苗瑞","id_card_no":"445381195904045396"}</t>
+          <t>{"user_name":"魏宁","id_card_no":"36010219780623225X"}</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"后勇","id_card_no":"230826193003043625"}</t>
+          <t>{"user_name":"公娜","id_card_no":"13020919450402036X"}</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"明想","id_card_no":"451202193408020454"}</t>
+          <t>{"user_name":"钟玲","id_card_no":"150526197508028027"}</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"郏坤","id_card_no":"140624197401107324"}</t>
+          <t>{"user_name":"梅丽","id_card_no":"141130198003193402"}</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"羊帆","id_card_no":"469029195806223000"}</t>
+          <t>{"user_name":"燕娜","id_card_no":"430221194205155577"}</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"仰畅","id_card_no":"140425197011092791"}</t>
+          <t>{"user_name":"驷兵","id_card_no":"211021196711270197"}</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"陈燕","id_card_no":"522634196607184385"}</t>
+          <t>{"user_name":"费鹏","id_card_no":"620500196005020482"}</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"卓彬","id_card_no":"50010219830326578X"}</t>
+          <t>{"user_name":"段军","id_card_no":"371526195008283382"}</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"user_name":"阎冬梅","id_card_no":"371602196203020667"}</t>
+          <t>{"user_name":"终志强","id_card_no":"511402193604137227"}</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"user_name":"卞春梅","id_card_no":"140106199912046921"}</t>
+          <t>{"user_name":"常阳","id_card_no":"411626199909193241"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-06001_result.xlsx
+++ b/tests/data/output/一级测试用例-06001_result.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"卫雪","id_card_no":"140829193804117222"}</t>
+          <t>{"user_name":"阳宁","id_card_no":"620200197602137003"}</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"邬晨","id_card_no":"45032719930708786X"}</t>
+          <t>{"user_name":"阴云","id_card_no":"610430199102013297"}</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"空倩","id_card_no":"140922194406297120"}</t>
+          <t>{"user_name":"糜红梅","id_card_no":"511424194104240183"}</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"酆华","id_card_no":"411402196710017632"}</t>
+          <t>{"user_name":"丘利","id_card_no":"450200196609203142"}</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"权林","id_card_no":"451031196701198694"}</t>
+          <t>{"user_name":"驷洋","id_card_no":"320982198708160558"}</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"跋婷婷","id_card_no":"420682195304012747"}</t>
+          <t>{"user_name":"舒俊","id_card_no":"440233194605014957"}</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"仰莉","id_card_no":"23090219960109589X"}</t>
+          <t>{"user_name":"赏涛","id_card_no":"450125197704235456"}</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"苗淑英","id_card_no":"341200194212264656"}</t>
+          <t>{"user_name":"胥岩","id_card_no":"542226195912158316"}</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"通瑜","id_card_no":"230109199103124388"}</t>
+          <t>{"user_name":"喻琳","id_card_no":"350505195908051273"}</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"养阳","id_card_no":"50023319460714716X"}</t>
+          <t>{"user_name":"魏勇","id_card_no":"130929197012284067"}</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"蔚帅","id_card_no":"350629196402172650"}</t>
+          <t>{"user_name":"梁鑫","id_card_no":"62072119541018303X"}</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"康雷","id_card_no":"61040319790605861X"}</t>
+          <t>{"user_name":"左倩","id_card_no":"430527193310166147"}</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"盖玉梅","id_card_no":"511524193608095232"}</t>
+          <t>{"user_name":"俞晨","id_card_no":"410403196607287007"}</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"金畅","id_card_no":"632623197902042743"}</t>
+          <t>{"user_name":"屠洁","id_card_no":"611021196703021945"}</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"魏宁","id_card_no":"36010219780623225X"}</t>
+          <t>{"user_name":"孙岩","id_card_no":"445101198211127592"}</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"公娜","id_card_no":"13020919450402036X"}</t>
+          <t>{"user_name":"从玉梅","id_card_no":"530721195105319146"}</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"钟玲","id_card_no":"150526197508028027"}</t>
+          <t>{"user_name":"计东","id_card_no":"140108193401228702"}</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"梅丽","id_card_no":"141130198003193402"}</t>
+          <t>{"user_name":"郁晶","id_card_no":"513335194211120254"}</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"燕娜","id_card_no":"430221194205155577"}</t>
+          <t>{"user_name":"宿斌","id_card_no":"431100199803183419"}</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"驷兵","id_card_no":"211021196711270197"}</t>
+          <t>{"user_name":"耿海燕","id_card_no":"330122198308306943"}</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"费鹏","id_card_no":"620500196005020482"}</t>
+          <t>{"user_name":"沃刚","id_card_no":"130127196107031117"}</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"段军","id_card_no":"371526195008283382"}</t>
+          <t>{"user_name":"甄静","id_card_no":"330182196105039432"}</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"user_name":"终志强","id_card_no":"511402193604137227"}</t>
+          <t>{"user_name":"干玉英","id_card_no":"441303193702177575"}</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"user_name":"常阳","id_card_no":"411626199909193241"}</t>
+          <t>{"user_name":"蔡秀芳","id_card_no":"420801198605141338"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-06001_result.xlsx
+++ b/tests/data/output/一级测试用例-06001_result.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"阳宁","id_card_no":"620200197602137003"}</t>
+          <t>{"user_name":"郑浩","id_card_no":"610203197611309804"}</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"阴云","id_card_no":"610430199102013297"}</t>
+          <t>{"user_name":"柴慧","id_card_no":"520321197102130730"}</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"糜红梅","id_card_no":"511424194104240183"}</t>
+          <t>{"user_name":"陈桂芝","id_card_no":"460106195610075045"}</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"丘利","id_card_no":"450200196609203142"}</t>
+          <t>{"user_name":"方丹丹","id_card_no":"513337193110015808"}</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"驷洋","id_card_no":"320982198708160558"}</t>
+          <t>{"user_name":"江兵","id_card_no":"52032919441007431X"}</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"舒俊","id_card_no":"440233194605014957"}</t>
+          <t>{"user_name":"钦雷","id_card_no":"420701199006201107"}</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"赏涛","id_card_no":"450125197704235456"}</t>
+          <t>{"user_name":"卢林","id_card_no":"620822198806026394"}</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"胥岩","id_card_no":"542226195912158316"}</t>
+          <t>{"user_name":"徐想","id_card_no":"330503199408175247"}</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"喻琳","id_card_no":"350505195908051273"}</t>
+          <t>{"user_name":"闾洁","id_card_no":"54242719871231643X"}</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"魏勇","id_card_no":"130929197012284067"}</t>
+          <t>{"user_name":"仇娜","id_card_no":"230422195709185213"}</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"梁鑫","id_card_no":"62072119541018303X"}</t>
+          <t>{"user_name":"伍楠","id_card_no":"360801198311148810"}</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"左倩","id_card_no":"430527193310166147"}</t>
+          <t>{"user_name":"阴斌","id_card_no":"210311198201021707"}</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"俞晨","id_card_no":"410403196607287007"}</t>
+          <t>{"user_name":"童峰","id_card_no":"640323194003076683"}</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"屠洁","id_card_no":"611021196703021945"}</t>
+          <t>{"user_name":"束璐","id_card_no":"522631198101134997"}</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"孙岩","id_card_no":"445101198211127592"}</t>
+          <t>{"user_name":"戎晶","id_card_no":"120225196308050227"}</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"从玉梅","id_card_no":"530721195105319146"}</t>
+          <t>{"user_name":"师建","id_card_no":"340604196811155094"}</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"计东","id_card_no":"140108193401228702"}</t>
+          <t>{"user_name":"於平","id_card_no":"621200199208228353"}</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"郁晶","id_card_no":"513335194211120254"}</t>
+          <t>{"user_name":"吉辉","id_card_no":"410423199505290132"}</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"宿斌","id_card_no":"431100199803183419"}</t>
+          <t>{"user_name":"空辉","id_card_no":"411200194101194761"}</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"耿海燕","id_card_no":"330122198308306943"}</t>
+          <t>{"user_name":"微建国","id_card_no":"340822194512111846"}</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"沃刚","id_card_no":"130127196107031117"}</t>
+          <t>{"user_name":"羊婷","id_card_no":"621126194810316378"}</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"甄静","id_card_no":"330182196105039432"}</t>
+          <t>{"user_name":"万旭","id_card_no":"210922193412316555"}</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"user_name":"干玉英","id_card_no":"441303193702177575"}</t>
+          <t>{"user_name":"后秀荣","id_card_no":"510411199306180115"}</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"user_name":"蔡秀芳","id_card_no":"420801198605141338"}</t>
+          <t>{"user_name":"姜超","id_card_no":"54223319690601412X"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-06001_result.xlsx
+++ b/tests/data/output/一级测试用例-06001_result.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"郑浩","id_card_no":"610203197611309804"}</t>
+          <t>{"user_name":"司兰英","id_card_no":"360103198205266084"}</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"柴慧","id_card_no":"520321197102130730"}</t>
+          <t>{"user_name":"冀岩","id_card_no":"320482199001087737"}</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"陈桂芝","id_card_no":"460106195610075045"}</t>
+          <t>{"user_name":"叶雪","id_card_no":"513222196706112397"}</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"方丹丹","id_card_no":"513337193110015808"}</t>
+          <t>{"user_name":"计丽娟","id_card_no":"130925196002053775"}</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"江兵","id_card_no":"52032919441007431X"}</t>
+          <t>{"user_name":"文琳","id_card_no":"620723193801213500"}</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"钦雷","id_card_no":"420701199006201107"}</t>
+          <t>{"user_name":"亢鹏","id_card_no":"421087200009050760"}</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"卢林","id_card_no":"620822198806026394"}</t>
+          <t>{"user_name":"商瑜","id_card_no":"410302197801066550"}</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"徐想","id_card_no":"330503199408175247"}</t>
+          <t>{"user_name":"龙芳","id_card_no":"520600195201095024"}</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"闾洁","id_card_no":"54242719871231643X"}</t>
+          <t>{"user_name":"钮东","id_card_no":"210303200107195575"}</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"仇娜","id_card_no":"230422195709185213"}</t>
+          <t>{"user_name":"濮雷","id_card_no":"131100194908241175"}</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"伍楠","id_card_no":"360801198311148810"}</t>
+          <t>{"user_name":"戈桂荣","id_card_no":"512022193903054207"}</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"阴斌","id_card_no":"210311198201021707"}</t>
+          <t>{"user_name":"乐桂珍","id_card_no":"43051119710325626X"}</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"童峰","id_card_no":"640323194003076683"}</t>
+          <t>{"user_name":"慕瑞","id_card_no":"620104196111272660"}</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"束璐","id_card_no":"522631198101134997"}</t>
+          <t>{"user_name":"郁雪梅","id_card_no":"320411198206027914"}</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"戎晶","id_card_no":"120225196308050227"}</t>
+          <t>{"user_name":"项琳","id_card_no":"440982195907109193"}</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"师建","id_card_no":"340604196811155094"}</t>
+          <t>{"user_name":"万冬梅","id_card_no":"530000195203314525"}</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"於平","id_card_no":"621200199208228353"}</t>
+          <t>{"user_name":"柴丽娟","id_card_no":"340881194908117902"}</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"吉辉","id_card_no":"410423199505290132"}</t>
+          <t>{"user_name":"马英","id_card_no":"511111192908230071"}</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"空辉","id_card_no":"411200194101194761"}</t>
+          <t>{"user_name":"木秀荣","id_card_no":"210403197503294808"}</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"微建国","id_card_no":"340822194512111846"}</t>
+          <t>{"user_name":"叔婷","id_card_no":"210411194911223255"}</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"羊婷","id_card_no":"621126194810316378"}</t>
+          <t>{"user_name":"倪玲","id_card_no":"330901199208179322"}</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"万旭","id_card_no":"210922193412316555"}</t>
+          <t>{"user_name":"朱桂荣","id_card_no":"530925198204171001"}</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"user_name":"后秀荣","id_card_no":"510411199306180115"}</t>
+          <t>{"user_name":"芮娜","id_card_no":"350821193211271855"}</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"user_name":"姜超","id_card_no":"54223319690601412X"}</t>
+          <t>{"user_name":"邢冬梅","id_card_no":"621100196609292429"}</t>
         </is>
       </c>
     </row>
